--- a/inst/extdata/minimal_example_excel_template.xlsx
+++ b/inst/extdata/minimal_example_excel_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C67DF82C-2FF6-2840-9FED-8B00B2D4AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C67DF82C-2FF6-2840-9FED-8B00B2D4AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF6C4F41-EC6A-0142-99FE-D9EB12107C5F}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="1420" windowWidth="28800" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="28800" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -268,19 +268,19 @@
     <t>RNAPII</t>
   </si>
   <si>
-    <t>http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_3pseq/</t>
-  </si>
-  <si>
-    <t>http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_TTseq/</t>
-  </si>
-  <si>
-    <t>http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_RNAseq/</t>
-  </si>
-  <si>
-    <t>http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_ChIPseq/</t>
-  </si>
-  <si>
     <t>+PAP</t>
+  </si>
+  <si>
+    <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_TTseq/</t>
+  </si>
+  <si>
+    <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_RNAseq/</t>
+  </si>
+  <si>
+    <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_ChIPseq/</t>
+  </si>
+  <si>
+    <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_3pseq/</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +752,7 @@
         <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
         <v>37</v>
@@ -1701,10 +1701,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F3FB9481-5075-BD43-8802-C470E1B73EA6}"/>
-    <hyperlink ref="C42" r:id="rId2" xr:uid="{B71FE05B-4E94-204C-8212-126A2EC25BF0}"/>
-    <hyperlink ref="C50" r:id="rId3" xr:uid="{CE081A57-03EB-8545-9FF6-ED515FC84E88}"/>
-    <hyperlink ref="C58" r:id="rId4" xr:uid="{789F8E65-1649-D945-A802-9480409ED443}"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_3pseq/" xr:uid="{F3FB9481-5075-BD43-8802-C470E1B73EA6}"/>
+    <hyperlink ref="C42" r:id="rId2" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_TTseq/" xr:uid="{B71FE05B-4E94-204C-8212-126A2EC25BF0}"/>
+    <hyperlink ref="C50" r:id="rId3" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_RNAseq/" xr:uid="{CE081A57-03EB-8545-9FF6-ED515FC84E88}"/>
+    <hyperlink ref="C58" r:id="rId4" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_ChIPseq/" xr:uid="{789F8E65-1649-D945-A802-9480409ED443}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/minimal_example_excel_template.xlsx
+++ b/inst/extdata/minimal_example_excel_template.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C67DF82C-2FF6-2840-9FED-8B00B2D4AC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF6C4F41-EC6A-0142-99FE-D9EB12107C5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6060A6-9E04-E74A-BD7D-3B2725D57182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="28800" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="35260" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Samples" sheetId="1" r:id="rId1"/>
+    <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
   <si>
     <t>strand</t>
   </si>
@@ -121,36 +131,6 @@
     <t>subgroup_4</t>
   </si>
   <si>
-    <t>siRRP40_xPAP_ip_batch1_minus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_xPAP_ip_batch3_minus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_xPAP_ip_batch1_minus.bw</t>
-  </si>
-  <si>
-    <t>4sU</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>siRRP40_xPAP_ip_batch1_plus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_xPAP_ip_batch1_plus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_xPAP_ip_batch3_plus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_xPAP_ip_batch3_minus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_xPAP_ip_batch3_plus.bw</t>
-  </si>
-  <si>
     <t>siGFP_xPAP_in_batch1_plus.bw</t>
   </si>
   <si>
@@ -181,75 +161,12 @@
     <t>siRRP40_xPAP_in_batch3_minus.bw</t>
   </si>
   <si>
-    <t>siGFP_noPAP_in_batch1_plus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_noPAP_in_batch1_minus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_noPAP_in_batch2_plus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_noPAP_in_batch2_minus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_noPAP_in_batch3_plus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_noPAP_in_batch3_minus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_noPAP_in_batch1_plus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_noPAP_in_batch1_minus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_noPAP_in_batch3_plus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_noPAP_in_batch3_minus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_noPAP_ip_batch1_plus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_noPAP_ip_batch1_minus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_noPAP_ip_batch3_plus.bw</t>
-  </si>
-  <si>
-    <t>siGFP_noPAP_ip_batch3_minus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_noPAP_ip_batch1_plus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_noPAP_ip_batch1_minus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_noPAP_ip_batch3_plus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_noPAP_ip_batch3_minus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_noPAP_in_batch2_plus.bw</t>
-  </si>
-  <si>
-    <t>siRRP40_noPAP_in_batch2_minus.bw</t>
-  </si>
-  <si>
     <t>siCTRL</t>
   </si>
   <si>
     <t>siEXOSC3</t>
   </si>
   <si>
-    <t>-PAP</t>
-  </si>
-  <si>
     <t>#5E5760</t>
   </si>
   <si>
@@ -268,7 +185,7 @@
     <t>RNAPII</t>
   </si>
   <si>
-    <t>+PAP</t>
+    <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_3pseq/</t>
   </si>
   <si>
     <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_TTseq/</t>
@@ -278,9 +195,6 @@
   </si>
   <si>
     <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_ChIPseq/</t>
-  </si>
-  <si>
-    <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_3pseq/</t>
   </si>
 </sst>
 </file>
@@ -362,16 +276,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -697,65 +609,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="76.33203125" customWidth="1"/>
+    <col min="4" max="4" width="79.5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -766,68 +680,62 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
@@ -837,13 +745,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>45</v>
+      </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -853,12 +760,12 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -866,17 +773,17 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>74</v>
+      <c r="H8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -886,12 +793,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
@@ -901,12 +808,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -916,12 +823,12 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -931,12 +838,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -946,12 +853,15 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1</v>
@@ -959,20 +869,20 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" t="s">
-        <v>73</v>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -982,129 +892,129 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -1113,13 +1023,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>1</v>
@@ -1128,13 +1038,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -1143,568 +1053,115 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_3pseq/" xr:uid="{F3FB9481-5075-BD43-8802-C470E1B73EA6}"/>
-    <hyperlink ref="C42" r:id="rId2" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_TTseq/" xr:uid="{B71FE05B-4E94-204C-8212-126A2EC25BF0}"/>
-    <hyperlink ref="C50" r:id="rId3" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_RNAseq/" xr:uid="{CE081A57-03EB-8545-9FF6-ED515FC84E88}"/>
-    <hyperlink ref="C58" r:id="rId4" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_ChIPseq/" xr:uid="{789F8E65-1649-D945-A802-9480409ED443}"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_TTseq/" xr:uid="{B71FE05B-4E94-204C-8212-126A2EC25BF0}"/>
+    <hyperlink ref="C22" r:id="rId2" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_RNAseq/" xr:uid="{CE081A57-03EB-8545-9FF6-ED515FC84E88}"/>
+    <hyperlink ref="C30" r:id="rId3" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_ChIPseq/" xr:uid="{789F8E65-1649-D945-A802-9480409ED443}"/>
+    <hyperlink ref="C2" r:id="rId4" display="http://genome-ftp.mbg.au.dk/public/THJ/Seq2PlotR/examples/tracks/HeLa_3pseq/" xr:uid="{23D21FA5-27C9-004E-8822-26FC139E280E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/minimal_example_excel_template.xlsx
+++ b/inst/extdata/minimal_example_excel_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au103725/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B98E9A7-3419-624B-950A-F0CB06784843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7B98E9A7-3419-624B-950A-F0CB06784843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50C241C3-11DC-904A-B260-76078ED66CE0}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="34080" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="1300" windowWidth="23940" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_3pseq/</t>
   </si>
   <si>
-    <t>siGFP_xPAP_in_batch1_plus.bw</t>
-  </si>
-  <si>
     <t>plus</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>GSM2642508_WIGfs_Hela-H9_WT_siFFL_Pol_II_N20_MA736_bin50_Scaled_BGSub_Hg38.bw</t>
+  </si>
+  <si>
+    <t>WT_1_EPAP_dedup_unique_tailed_Afilt_minus.bw</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -580,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -600,10 +602,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -614,10 +616,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -628,10 +630,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -642,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -656,10 +658,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -667,30 +669,30 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -698,13 +700,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -712,13 +714,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -726,13 +728,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -740,13 +742,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -757,22 +759,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -780,10 +782,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -794,10 +796,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -808,10 +810,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -819,30 +821,30 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -850,13 +852,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -864,13 +866,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -881,22 +883,22 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -904,10 +906,10 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -918,10 +920,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -932,10 +934,10 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -943,30 +945,30 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -974,13 +976,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -988,13 +990,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1002,33 +1004,33 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
         <v>47</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>48</v>
-      </c>
-      <c r="G30" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/minimal_example_excel_template.xlsx
+++ b/inst/extdata/minimal_example_excel_template.xlsx
@@ -1036,4 +1036,203 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005C0785B5AE07D648A35CBE06027B3A9A" ma:contentTypeVersion="10" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="0bf6ee709b3de6cc2ca22a78e4061994">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f2cc503-5358-4f9e-8ed5-059173de2454" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f752f1f93033319c3949c5a45c6682b7" ns2:_="">
+    <xsd:import namespace="2f2cc503-5358-4f9e-8ed5-059173de2454"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2f2cc503-5358-4f9e-8ed5-059173de2454" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Indholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED9F224-0B4C-46BB-994A-329D390B1F02}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81FC3533-6106-42E7-872B-859C8F4AF07F}"/>
 </file>